--- a/VerveStacks_JPN/vt_vervestacks_JPN_v1.xlsx
+++ b/VerveStacks_JPN/vt_vervestacks_JPN_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABBF0EC0-D649-4945-B746-98F485481D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99B8F5D9-C8A1-4374-A440-B59FA66E8528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="21600" windowHeight="12682" xr2:uid="{C8709B52-ED9E-434A-AFAD-65C5C030884B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CB8303B4-3443-4077-A1F5-821F4574737B}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -6111,7 +6111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A153A14C-FF42-4F69-9AAA-23C8AE6A6ED5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9F3BA1-122A-4C8A-8C42-7F5032590955}">
   <dimension ref="A2:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -8903,7 +8903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBFC84F-1AB3-4BBE-8248-E4DCC7433F6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DFB85B-9560-4F06-A912-9E2BCA5686CF}">
   <dimension ref="A2:T394"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -30876,7 +30876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02841C1D-512A-45F9-B26E-C18C1E918DE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BA190E-4B9D-48AB-ABC6-E2F7F05FEE3D}">
   <dimension ref="A2:S686"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_JPN/vt_vervestacks_JPN_v1.xlsx
+++ b/VerveStacks_JPN/vt_vervestacks_JPN_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99B8F5D9-C8A1-4374-A440-B59FA66E8528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32F00711-4012-444F-A00D-5B3FFE07DF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CB8303B4-3443-4077-A1F5-821F4574737B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{2236884D-2E9B-4C69-B78E-13C766611BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -6111,7 +6111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9F3BA1-122A-4C8A-8C42-7F5032590955}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFFA7F7-D413-4FE9-AA6E-8CC9B77FA2FF}">
   <dimension ref="A2:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -8903,7 +8903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DFB85B-9560-4F06-A912-9E2BCA5686CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2669B265-D55C-4E88-8D6F-7B3C9EC85578}">
   <dimension ref="A2:T394"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -30876,7 +30876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BA190E-4B9D-48AB-ABC6-E2F7F05FEE3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB336D3-1759-4BE9-8956-939B8D708F41}">
   <dimension ref="A2:S686"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_JPN/vt_vervestacks_JPN_v1.xlsx
+++ b/VerveStacks_JPN/vt_vervestacks_JPN_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32F00711-4012-444F-A00D-5B3FFE07DF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2A9DE37-516A-4740-AEC2-AAE25A92C8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{2236884D-2E9B-4C69-B78E-13C766611BCE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{560314EC-15D5-4808-B5C0-D2BACC8B14E5}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -6111,7 +6111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFFA7F7-D413-4FE9-AA6E-8CC9B77FA2FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E034B42-876A-495F-B178-AB8E19668D91}">
   <dimension ref="A2:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -8903,7 +8903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2669B265-D55C-4E88-8D6F-7B3C9EC85578}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1C50F6-6336-49B0-A756-2AB59444CBFB}">
   <dimension ref="A2:T394"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -30876,7 +30876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB336D3-1759-4BE9-8956-939B8D708F41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5097383-83B7-49FF-95FC-2230AABAE0EF}">
   <dimension ref="A2:S686"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_JPN/vt_vervestacks_JPN_v1.xlsx
+++ b/VerveStacks_JPN/vt_vervestacks_JPN_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41899AD1-7021-47D2-82F5-8F8076518C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3201C2E-99CE-4EC6-A3C6-EC024E72EFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{8DAEACF4-8872-43B1-B91B-8EE4D9ACFE6F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{5D3160AE-30A7-4EB6-94CB-9494FDE3CA1F}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -1702,7 +1702,7 @@
     <t>ep_wind_onshore_G100000901355</t>
   </si>
   <si>
-    <t>VERVESTACKS: the open USE platform. Powered by data | Guided by intuition | Built with AI.</t>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
   </si>
   <si>
     <t>~fi_process</t>
@@ -5766,7 +5766,7 @@
     </font>
     <font>
       <b/>
-      <sz val="7"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -6196,7 +6196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE408F0-2DBB-4BD2-B452-23A0F6D0BBC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AAD0AB-C4C2-4E92-B156-82DAE4429EF7}">
   <dimension ref="A1:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -9050,7 +9050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD6CC6B-AFC8-4176-A5A4-15E9F84AEEDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6B06D7-82A6-4593-9C43-88AC2319359C}">
   <dimension ref="A1:U394"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -31065,7 +31065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57536547-2ADC-4B85-BA58-EAF2DBE91654}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77F7CE5-AC95-46B6-AD75-A0D376047A61}">
   <dimension ref="A1:T686"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_JPN/vt_vervestacks_JPN_v1.xlsx
+++ b/VerveStacks_JPN/vt_vervestacks_JPN_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A16E62B0-9A12-4DBB-AC2C-6D3C228A9B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B8E7B5C-A34F-477E-B507-F574133E7621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F0D21E0A-A0F8-493E-984D-AA99A8EF40F6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{4337E2C5-F9BF-4C16-8435-FC17730AB1F2}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3298,7 +3298,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{656F390B-D9C6-D81D-AB74-6427B2A33CAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF9B90C3-4932-42BF-E3A7-127A9BB0445B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3353,7 +3353,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD45502C-1DFB-0C0B-5E68-68F846101892}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{437BE375-D1A9-D16D-8B7F-D9CA5D393227}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3704,7 +3704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9936B8-0C9C-4D96-9AA7-34DEAD6B10E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF95C38-25BB-407A-8850-DEC818F6064E}">
   <dimension ref="A1:U315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -19234,7 +19234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07CC626-5312-4ED8-BCE8-7B22E6736BFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10ED3C7-466B-4F6A-9637-E9C842A8C59B}">
   <dimension ref="A1:T541"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
